--- a/biology/Histoire de la zoologie et de la botanique/Marc_Athanase_Parfait_Œillet_Des_Murs/Marc_Athanase_Parfait_Œillet_Des_Murs.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marc_Athanase_Parfait_Œillet_Des_Murs/Marc_Athanase_Parfait_Œillet_Des_Murs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Marc_Athanase_Parfait_%C5%92illet_Des_Murs</t>
+          <t>Marc_Athanase_Parfait_Œillet_Des_Murs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marc-Athanase-Parfait-Œillet Des Murs[1], ou Marc-Athanase-Parfait Œillet des Murs[2],[3],[4],  est un ornithologue français, né le 17 avril 1804 et mort le 25 février 1894.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marc-Athanase-Parfait-Œillet Des Murs, ou Marc-Athanase-Parfait Œillet des Murs  est un ornithologue français, né le 17 avril 1804 et mort le 25 février 1894.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Marc_Athanase_Parfait_%C5%92illet_Des_Murs</t>
+          <t>Marc_Athanase_Parfait_Œillet_Des_Murs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est principalement connu pour ses déterminations d’oiseaux rapportés par différentes expéditions françaises comme celle de la frégate La Vénus qui fait le tour du monde de 1836 jusqu’en 1839. C’est également Des Murs, avec Frédéric de Lafresnaye (1783-1861), qui s’occupe de la description des deux mille peaux d’oiseaux rapportés par le comte de Francis de Laporte de Castelnau (1810-1880) de ses voyages en Amérique du Sud.
 Enfin, il s’occupe de la partie ornithologique de l’Historia fisica y politica de Chile, à partir des spécimens récoltés par le naturaliste français Claudio Gay (1800-1873), ce qui constitue la première faune aviaire du Chili. Son travail n’est pas très bon : différentes espèces apparaissent sous le même nom et, inversement, la même espèce est décrite plusieurs fois.
